--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/refseq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Retroviruses/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACBA583-2905-B04E-B41B-7F7A5A73D005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A989A-0C6A-CE43-92E2-D0EDC827E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="9980" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2369,9 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:L6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Retroviruses/Lentivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A989A-0C6A-CE43-92E2-D0EDC827E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D100BCDD-8A6B-284D-89D8-7C54E179963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="9980" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="589">
   <si>
     <t>Accession</t>
   </si>
@@ -1791,6 +1791,12 @@
   </si>
   <si>
     <t>species</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +1965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2019,6 +2025,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2367,21 +2376,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="14"/>
+    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>454</v>
       </c>
@@ -2403,23 +2415,26 @@
       <c r="G1" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>494</v>
       </c>
@@ -2441,17 +2456,20 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="I2" t="s">
         <v>497</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -2473,14 +2491,17 @@
       <c r="G3" t="s">
         <v>575</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="I3" t="s">
         <v>469</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>336</v>
       </c>
@@ -2502,14 +2523,17 @@
       <c r="G4" t="s">
         <v>576</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="I4" t="s">
         <v>479</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -2531,14 +2555,17 @@
       <c r="G5" t="s">
         <v>575</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="I5" t="s">
         <v>493</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>579</v>
       </c>
@@ -2560,10 +2587,13 @@
       <c r="G6" t="s">
         <v>448</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>528</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>450</v>
       </c>
     </row>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D100BCDD-8A6B-284D-89D8-7C54E179963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBB5D5-A3C1-9E4F-9F13-4243026B4829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="9980" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2379,7 +2379,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2582,10 +2582,10 @@
         <v>585</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>448</v>
+        <v>28</v>
       </c>
       <c r="H6" s="14">
         <v>1</v>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBB5D5-A3C1-9E4F-9F13-4243026B4829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A665782-7D9A-774C-8A13-EB23D329CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="9980" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1742,9 +1742,6 @@
     <t>Equine infectious anemia virus</t>
   </si>
   <si>
-    <t xml:space="preserve">FIV </t>
-  </si>
-  <si>
     <t>host_sci_name</t>
   </si>
   <si>
@@ -1797,6 +1794,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>HIV-1M</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2379,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H5" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2404,7 +2404,7 @@
         <v>455</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>461</v>
@@ -2413,25 +2413,25 @@
         <v>459</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>462</v>
       </c>
       <c r="J1" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>573</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2439,13 +2439,13 @@
         <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="D2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E2" t="s">
         <v>473</v>
@@ -2457,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I2" t="s">
         <v>497</v>
@@ -2477,22 +2477,22 @@
         <v>463</v>
       </c>
       <c r="C3" t="s">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
         <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I3" t="s">
         <v>469</v>
@@ -2509,22 +2509,22 @@
         <v>569</v>
       </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s">
         <v>337</v>
       </c>
       <c r="E4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I4" t="s">
         <v>479</v>
@@ -2541,22 +2541,22 @@
         <v>482</v>
       </c>
       <c r="C5" t="s">
-        <v>570</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
         <v>383</v>
       </c>
       <c r="E5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I5" t="s">
         <v>493</v>
@@ -2567,19 +2567,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
-        <v>527</v>
+        <v>343</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="E6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A665782-7D9A-774C-8A13-EB23D329CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBEC40E-FDF3-D747-925B-75E83AB76A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="9980" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="590">
   <si>
     <t>Accession</t>
   </si>
@@ -1797,6 +1797,9 @@
   </si>
   <si>
     <t>HIV-1M</t>
+  </si>
+  <si>
+    <t>Iceland</t>
   </si>
 </sst>
 </file>
@@ -2378,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2595,6 +2598,9 @@
       </c>
       <c r="J6" t="s">
         <v>450</v>
+      </c>
+      <c r="M6" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBEC40E-FDF3-D747-925B-75E83AB76A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E0DE4-7F72-504E-9FF9-5BA20FEE7ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="9980" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25400" yWindow="6360" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="593">
   <si>
     <t>Accession</t>
   </si>
@@ -1800,6 +1800,15 @@
   </si>
   <si>
     <t>Iceland</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>NK</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2030,6 +2039,12 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2381,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M6" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2471,6 +2486,12 @@
       <c r="K2" t="s">
         <v>9</v>
       </c>
+      <c r="L2" t="s">
+        <v>592</v>
+      </c>
+      <c r="M2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2503,6 +2524,15 @@
       <c r="J3" t="s">
         <v>436</v>
       </c>
+      <c r="K3" t="s">
+        <v>592</v>
+      </c>
+      <c r="L3" t="s">
+        <v>592</v>
+      </c>
+      <c r="M3" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2535,6 +2565,15 @@
       <c r="J4" t="s">
         <v>480</v>
       </c>
+      <c r="K4" t="s">
+        <v>592</v>
+      </c>
+      <c r="L4" t="s">
+        <v>592</v>
+      </c>
+      <c r="M4" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2567,6 +2606,15 @@
       <c r="J5" t="s">
         <v>434</v>
       </c>
+      <c r="K5" t="s">
+        <v>592</v>
+      </c>
+      <c r="L5" t="s">
+        <v>592</v>
+      </c>
+      <c r="M5" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2587,17 +2635,23 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="G6" s="33">
         <v>1</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>448</v>
       </c>
       <c r="I6" t="s">
         <v>528</v>
       </c>
       <c r="J6" t="s">
         <v>450</v>
+      </c>
+      <c r="K6" t="s">
+        <v>592</v>
+      </c>
+      <c r="L6" t="s">
+        <v>592</v>
       </c>
       <c r="M6" t="s">
         <v>589</v>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E0DE4-7F72-504E-9FF9-5BA20FEE7ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664BF2E2-46B2-5E40-A8A8-20C7851D2826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25400" yWindow="6360" windowWidth="24900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1260" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="612">
   <si>
     <t>Accession</t>
   </si>
@@ -1809,13 +1809,70 @@
   </si>
   <si>
     <t>NK</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIVpco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIVoma </t>
+  </si>
+  <si>
+    <t>KU168292</t>
+  </si>
+  <si>
+    <t>LA49RBF189</t>
+  </si>
+  <si>
+    <t>GU111555</t>
+  </si>
+  <si>
+    <t>RBF168</t>
+  </si>
+  <si>
+    <t>JN835461</t>
+  </si>
+  <si>
+    <t>Chimpanzee</t>
+  </si>
+  <si>
+    <t>JN835460</t>
+  </si>
+  <si>
+    <t>SIVcpzEK505.c2</t>
+  </si>
+  <si>
+    <t>EF394356</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>SIVcpzTAN1</t>
+  </si>
+  <si>
+    <t>SIVgor-BQID2</t>
+  </si>
+  <si>
+    <t>SIVgor-BPID15</t>
+  </si>
+  <si>
+    <t>pubmed_id</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus cpz</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus gor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1884,8 +1941,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1940,6 +2011,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1977,7 +2054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2036,15 +2113,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2394,270 +2490,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M6" sqref="A1:M6"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="14"/>
     <col min="9" max="9" width="25.1640625" customWidth="1"/>
     <col min="10" max="10" width="23.1640625" customWidth="1"/>
     <col min="12" max="12" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>579</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>571</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="N1" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D9" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E9" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F9" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H9" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I9" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J9" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L9" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M9" s="28" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" t="s">
-        <v>581</v>
-      </c>
-      <c r="F3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" t="s">
-        <v>574</v>
-      </c>
-      <c r="H3" s="14" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="I10" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="L10" s="38">
+        <v>1995</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="38">
+        <v>9734396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="I11" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="L11" s="38">
+        <v>2005</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="38">
+        <v>26699702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="I12" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="L12" s="38">
+        <v>2009</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="I3" t="s">
-        <v>469</v>
-      </c>
-      <c r="J3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K3" t="s">
-        <v>592</v>
-      </c>
-      <c r="L3" t="s">
-        <v>592</v>
-      </c>
-      <c r="M3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" t="s">
-        <v>582</v>
-      </c>
-      <c r="F4" t="s">
-        <v>575</v>
-      </c>
-      <c r="G4" t="s">
-        <v>575</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="I4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J4" t="s">
-        <v>480</v>
-      </c>
-      <c r="K4" t="s">
-        <v>592</v>
-      </c>
-      <c r="L4" t="s">
-        <v>592</v>
-      </c>
-      <c r="M4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F5" t="s">
-        <v>574</v>
-      </c>
-      <c r="G5" t="s">
-        <v>574</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="I5" t="s">
-        <v>493</v>
-      </c>
-      <c r="J5" t="s">
-        <v>434</v>
-      </c>
-      <c r="K5" t="s">
-        <v>592</v>
-      </c>
-      <c r="L5" t="s">
-        <v>592</v>
-      </c>
-      <c r="M5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>578</v>
-      </c>
-      <c r="B6" t="s">
-        <v>577</v>
-      </c>
-      <c r="C6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" t="s">
-        <v>584</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="33">
-        <v>1</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="I6" t="s">
-        <v>528</v>
-      </c>
-      <c r="J6" t="s">
-        <v>450</v>
-      </c>
-      <c r="K6" t="s">
-        <v>592</v>
-      </c>
-      <c r="L6" t="s">
-        <v>592</v>
-      </c>
-      <c r="M6" t="s">
-        <v>589</v>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="I13" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="38">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="B14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="I14" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="38">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="B15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="I15" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="38">
+        <v>17494082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>611</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="I16" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="L16" s="38">
+        <v>2012</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="38">
+        <v>25733890</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>611</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="I17" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="L17" s="38">
+        <v>2013</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="38">
+        <v>25733890</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M9">
+    <sortCondition ref="E2:E9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664BF2E2-46B2-5E40-A8A8-20C7851D2826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39802823-ABAA-C147-AD03-4BC82C88B2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1260" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="619">
   <si>
     <t>Accession</t>
   </si>
@@ -1866,6 +1866,27 @@
   </si>
   <si>
     <t>Simian immunodeficiency virus gor</t>
+  </si>
+  <si>
+    <t>NC_001463</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype B</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>Capra hircus</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>JX480632</t>
   </si>
 </sst>
 </file>
@@ -2013,8 +2034,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2054,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2122,15 +2143,19 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2138,10 +2163,10 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2490,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2506,6 +2531,7 @@
     <col min="9" max="9" width="25.1640625" customWidth="1"/>
     <col min="10" max="10" width="23.1640625" customWidth="1"/>
     <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -2553,86 +2579,88 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="36" t="s">
         <v>591</v>
       </c>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="41" t="s">
         <v>593</v>
       </c>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
@@ -2677,34 +2705,34 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>336</v>
+        <v>612</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>587</v>
+        <v>8</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>479</v>
+        <v>614</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>480</v>
+        <v>615</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>592</v>
@@ -2713,161 +2741,164 @@
         <v>592</v>
       </c>
       <c r="M5" s="28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="K6" s="36" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="K6" s="28" t="s">
+      <c r="L6" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="M6" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="M6" s="28" t="s">
-        <v>590</v>
-      </c>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="K7" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="K7" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="M7" s="28"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="K8" s="28" t="s">
+      <c r="A8" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>616</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>616</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>616</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>494</v>
+        <v>328</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>576</v>
+        <v>482</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>588</v>
+        <v>383</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>580</v>
+        <v>383</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>473</v>
+        <v>583</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>374</v>
+        <v>574</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>8</v>
+        <v>574</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>587</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>316</v>
+        <v>434</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>9</v>
+        <v>592</v>
       </c>
       <c r="L9" s="28" t="s">
         <v>592</v>
@@ -2877,290 +2908,474 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="36">
+        <v>1</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B13" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C13" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="K13" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="L13" s="40">
+        <v>1995</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="40">
+        <v>9734396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F14" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="L14" s="40">
+        <v>2005</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="40">
+        <v>26699702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="L15" s="40">
+        <v>2009</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="40">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="I10" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="L10" s="38">
-        <v>1995</v>
-      </c>
-      <c r="M10" s="38" t="s">
+      <c r="G17" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="38">
-        <v>9734396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>596</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="N17" s="40">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F18" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="40">
+        <v>17494082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="I11" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="L11" s="38">
-        <v>2005</v>
-      </c>
-      <c r="M11" s="38" t="s">
+      <c r="G19" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="L19" s="40">
+        <v>2012</v>
+      </c>
+      <c r="M19" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="38">
-        <v>26699702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>598</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>576</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="N19" s="40">
+        <v>25733890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F20" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="I12" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="L12" s="38">
-        <v>2009</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="38" t="s">
+      <c r="G20" s="41" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>600</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="I13" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38" t="s">
+      <c r="H20" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="L20" s="40">
+        <v>2013</v>
+      </c>
+      <c r="M20" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="38">
-        <v>22505456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>602</v>
-      </c>
-      <c r="B14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="I14" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="38">
-        <v>22505456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>604</v>
-      </c>
-      <c r="B15" t="s">
-        <v>610</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>606</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>605</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="I15" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="38">
-        <v>17494082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" t="s">
-        <v>611</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="I16" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="L16" s="38">
-        <v>2012</v>
-      </c>
-      <c r="M16" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="38">
+      <c r="N20" s="40">
         <v>25733890</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" t="s">
-        <v>611</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="I17" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="L17" s="38">
-        <v>2013</v>
-      </c>
-      <c r="M17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="38">
-        <v>25733890</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M9">
-    <sortCondition ref="E2:E9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M12">
+    <sortCondition ref="E2:E12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39802823-ABAA-C147-AD03-4BC82C88B2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB00627-113F-F34D-8AEE-296FD961252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1260" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2518,7 +2518,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E13" activeCellId="1" sqref="A11 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>336</v>
+        <v>476</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>569</v>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB00627-113F-F34D-8AEE-296FD961252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E11167-0DF0-B24F-9CAB-B88A5BDD2A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1260" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26960" yWindow="1440" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -2517,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="E13" activeCellId="1" sqref="A11 E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2782,7 +2782,7 @@
         <v>592</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N6" s="37"/>
     </row>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E11167-0DF0-B24F-9CAB-B88A5BDD2A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7CD87-1DAA-8948-BA8B-023CDFF7E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26960" yWindow="1440" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9100" yWindow="1400" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="636">
   <si>
     <t>Accession</t>
   </si>
@@ -1887,6 +1887,57 @@
   </si>
   <si>
     <t>JX480632</t>
+  </si>
+  <si>
+    <t>EU293537</t>
+  </si>
+  <si>
+    <t>AF322109</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>JF502416</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SRLV-E2</t>
+  </si>
+  <si>
+    <t>SRLV-E1</t>
+  </si>
+  <si>
+    <t>SRLV-C</t>
+  </si>
+  <si>
+    <t>SRLV-B3</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype E2</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype E1</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype C</t>
+  </si>
+  <si>
+    <t>Small ruminant lentivirus genotype B3</t>
   </si>
 </sst>
 </file>
@@ -2515,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2618,7 +2669,9 @@
       <c r="M2" s="36" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
@@ -2660,7 +2713,9 @@
       <c r="M3" s="41" t="s">
         <v>593</v>
       </c>
-      <c r="N3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
@@ -2702,6 +2757,9 @@
       <c r="M4" s="28" t="s">
         <v>589</v>
       </c>
+      <c r="N4" s="28" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -2743,159 +2801,172 @@
       <c r="M5" s="28" t="s">
         <v>590</v>
       </c>
+      <c r="N5" s="28" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>575</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>575</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>575</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="K6" s="36" t="s">
+      <c r="A6" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="G6" s="30">
+        <v>2</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="M6" s="36" t="s">
-        <v>590</v>
-      </c>
-      <c r="N6" s="37"/>
+      <c r="M6" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="K7" s="36" t="s">
+      <c r="A7" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
+      <c r="M7" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>616</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>616</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>616</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="K8" s="36" t="s">
+      <c r="A8" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
+      <c r="M8" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>328</v>
+        <v>623</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>482</v>
+        <v>635</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>383</v>
+        <v>629</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>587</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="30">
+        <v>3</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>624</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>493</v>
+        <v>614</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>592</v>
@@ -2904,315 +2975,322 @@
         <v>592</v>
       </c>
       <c r="M9" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="M10" s="36" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="K10" s="28" t="s">
+      <c r="N10" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="L10" s="28" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="K11" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="K11" s="28" t="s">
+      <c r="L11" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="M11" s="36"/>
+      <c r="N11" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>494</v>
+        <v>338</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>588</v>
+        <v>337</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>580</v>
+        <v>337</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>473</v>
+        <v>582</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>374</v>
+        <v>616</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="36">
-        <v>1</v>
+        <v>616</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>616</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>316</v>
+        <v>480</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>9</v>
+        <v>592</v>
       </c>
       <c r="L12" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="36"/>
+      <c r="N12" s="37" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="36" t="s">
+      <c r="N13" s="28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="40">
-        <v>1995</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="40">
-        <v>9734396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>587</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>587</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>597</v>
-      </c>
-      <c r="L14" s="40">
-        <v>2005</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="40">
-        <v>26699702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>587</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>587</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="L15" s="40">
-        <v>2009</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>610</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>354</v>
+      <c r="C16" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>580</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="36" t="s">
         <v>374</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="40">
-        <v>22505456</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H16" s="36">
+        <v>1</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>354</v>
+        <v>176</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>473</v>
@@ -3220,47 +3298,49 @@
       <c r="F17" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="36" t="s">
         <v>587</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>601</v>
+        <v>316</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="L17" s="40"/>
+        <v>438</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="40">
+        <v>1995</v>
+      </c>
       <c r="M17" s="40" t="s">
         <v>66</v>
       </c>
       <c r="N17" s="40">
-        <v>22505456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+        <v>9734396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>354</v>
+        <v>596</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>473</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>605</v>
+        <v>377</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>587</v>
@@ -3269,113 +3349,285 @@
         <v>587</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>601</v>
+        <v>316</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>606</v>
-      </c>
-      <c r="L18" s="40"/>
+        <v>438</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="L18" s="40">
+        <v>2005</v>
+      </c>
       <c r="M18" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N18" s="40">
-        <v>17494082</v>
+        <v>26699702</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>550</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>550</v>
+        <v>598</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>473</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="G19" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="G19" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="41" t="s">
         <v>587</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="L19" s="40">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="40">
-        <v>25733890</v>
+        <v>10</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>611</v>
+        <v>600</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>610</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>550</v>
+        <v>354</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>550</v>
+        <v>354</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>473</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="36" t="s">
         <v>587</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>398</v>
+        <v>601</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="L20" s="40">
-        <v>2013</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="L20" s="40"/>
       <c r="M20" s="40" t="s">
         <v>66</v>
       </c>
       <c r="N20" s="40">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="40">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="40">
+        <v>17494082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="L23" s="40">
+        <v>2012</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="40">
         <v>25733890</v>
       </c>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="L24" s="40">
+        <v>2013</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="40">
+        <v>25733890</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M12">
-    <sortCondition ref="E2:E12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">
+    <sortCondition ref="E2:E16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7CD87-1DAA-8948-BA8B-023CDFF7E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FAAC32-442D-D146-A327-3897299BD90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9100" yWindow="1400" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="637">
   <si>
     <t>Accession</t>
   </si>
@@ -1938,6 +1938,9 @@
   </si>
   <si>
     <t>Small ruminant lentivirus genotype B3</t>
+  </si>
+  <si>
+    <t>GQ381130</t>
   </si>
 </sst>
 </file>
@@ -2569,7 +2572,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2807,7 +2810,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>332</v>
+        <v>636</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>632</v>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FAAC32-442D-D146-A327-3897299BD90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9C9C57-9E02-144B-B10F-CB933C6A9291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="1400" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="2880" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="660">
   <si>
     <t>Accession</t>
   </si>
@@ -1941,6 +1941,75 @@
   </si>
   <si>
     <t>GQ381130</t>
+  </si>
+  <si>
+    <t>MK686247</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus isolate SIVdrl1FAO</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus strain SIVrcm</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus strain SIVmnd</t>
+  </si>
+  <si>
+    <t>SIVsyk</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus SIVden</t>
+  </si>
+  <si>
+    <t>Cercopithecus mona</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus SIVgsn-99CM166</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus from sooty mangabey monkey</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus complete</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus virus strain SIVcolCGU1</t>
+  </si>
+  <si>
+    <t>SIVcol</t>
+  </si>
+  <si>
+    <t>Simian immunodeficiency virus - agm.sab-1</t>
+  </si>
+  <si>
+    <t>SIVagm.sab-1</t>
+  </si>
+  <si>
+    <t>SIVhoest</t>
+  </si>
+  <si>
+    <t>Sun-tailed monkey</t>
+  </si>
+  <si>
+    <t>Gorilla</t>
+  </si>
+  <si>
+    <t>Drill monkey</t>
+  </si>
+  <si>
+    <t>Mantled guereza</t>
+  </si>
+  <si>
+    <t>Sooty mangabey</t>
+  </si>
+  <si>
+    <t>Greater spot-nosed monkey</t>
+  </si>
+  <si>
+    <t>Mona monkey</t>
+  </si>
+  <si>
+    <t>Collared mangabey</t>
   </si>
 </sst>
 </file>
@@ -2569,15 +2638,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A26" sqref="A1:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
@@ -3307,11 +3376,11 @@
       <c r="H17" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="J17" s="36" t="s">
         <v>316</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>438</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>267</v>
@@ -3351,11 +3420,11 @@
       <c r="H18" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="J18" s="36" t="s">
         <v>316</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>438</v>
       </c>
       <c r="K18" s="40" t="s">
         <v>597</v>
@@ -3395,11 +3464,11 @@
       <c r="H19" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="J19" s="36" t="s">
         <v>316</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>438</v>
       </c>
       <c r="K19" s="40" t="s">
         <v>599</v>
@@ -3443,7 +3512,7 @@
         <v>601</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="K20" s="40" t="s">
         <v>245</v>
@@ -3485,7 +3554,7 @@
         <v>601</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="K21" s="40" t="s">
         <v>603</v>
@@ -3527,7 +3596,7 @@
         <v>601</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="K22" s="42" t="s">
         <v>606</v>
@@ -3566,10 +3635,10 @@
         <v>587</v>
       </c>
       <c r="I23" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="J23" s="40" t="s">
         <v>398</v>
-      </c>
-      <c r="J23" s="40" t="s">
-        <v>418</v>
       </c>
       <c r="K23" s="40" t="s">
         <v>607</v>
@@ -3610,10 +3679,10 @@
         <v>587</v>
       </c>
       <c r="I24" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="J24" s="40" t="s">
         <v>398</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>418</v>
       </c>
       <c r="K24" s="40" t="s">
         <v>608</v>
@@ -3627,6 +3696,440 @@
       <c r="N24" s="40">
         <v>25733890</v>
       </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>643</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>650</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>650</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9C9C57-9E02-144B-B10F-CB933C6A9291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FCBF9B-2E3E-C343-9D7C-0E72194031F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2880" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="3500" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="659">
   <si>
     <t>Accession</t>
   </si>
@@ -1895,18 +1895,9 @@
     <t>AF322109</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>JF502416</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -2010,6 +2001,12 @@
   </si>
   <si>
     <t>Collared mangabey</t>
+  </si>
+  <si>
+    <t>Seui</t>
+  </si>
+  <si>
+    <t>Feline immunodeficiency virus isolate SR631</t>
   </si>
 </sst>
 </file>
@@ -2641,7 +2638,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:N36"/>
+      <selection activeCell="B15" sqref="A1:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2812,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>448</v>
+        <v>587</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>528</v>
@@ -2856,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>8</v>
+        <v>587</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>614</v>
@@ -2879,13 +2876,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>388</v>
@@ -2894,13 +2891,13 @@
         <v>584</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G6" s="30">
         <v>2</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>614</v>
@@ -2915,7 +2912,7 @@
         <v>592</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>592</v>
@@ -2926,10 +2923,10 @@
         <v>619</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>388</v>
@@ -2938,13 +2935,13 @@
         <v>584</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G7" s="30">
         <v>1</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>622</v>
+        <v>587</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>614</v>
@@ -2959,7 +2956,7 @@
         <v>592</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>592</v>
@@ -2970,10 +2967,10 @@
         <v>620</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>388</v>
@@ -2988,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>47</v>
+        <v>587</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>614</v>
@@ -3003,7 +3000,7 @@
         <v>592</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="N8" s="28" t="s">
         <v>592</v>
@@ -3011,13 +3008,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>388</v>
@@ -3032,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>614</v>
@@ -3047,7 +3044,7 @@
         <v>592</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>592</v>
@@ -3075,8 +3072,8 @@
       <c r="G10" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>575</v>
+      <c r="H10" s="41" t="s">
+        <v>587</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>479</v>
@@ -3119,8 +3116,8 @@
       <c r="G11" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>617</v>
+      <c r="H11" s="41" t="s">
+        <v>587</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>479</v>
@@ -3162,7 +3159,7 @@
         <v>616</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>479</v>
@@ -3230,7 +3227,7 @@
         <v>481</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>482</v>
+        <v>658</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>594</v>
@@ -3262,7 +3259,9 @@
       <c r="L14" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="28" t="s">
+        <v>592</v>
+      </c>
       <c r="N14" s="28" t="s">
         <v>592</v>
       </c>
@@ -3304,7 +3303,9 @@
       <c r="L15" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="M15" s="28"/>
+      <c r="M15" s="28" t="s">
+        <v>592</v>
+      </c>
       <c r="N15" s="28" t="s">
         <v>592</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>587</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J23" s="40" t="s">
         <v>398</v>
@@ -3679,7 +3680,7 @@
         <v>587</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J24" s="40" t="s">
         <v>398</v>
@@ -3702,7 +3703,7 @@
         <v>208</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>538</v>
@@ -3723,7 +3724,7 @@
         <v>587</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="J25" s="40" t="s">
         <v>408</v>
@@ -3740,7 +3741,7 @@
         <v>197</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>537</v>
@@ -3779,10 +3780,10 @@
         <v>504</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E27" s="36" t="s">
         <v>473</v>
@@ -3812,7 +3813,7 @@
         <v>357</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>358</v>
@@ -3833,10 +3834,10 @@
         <v>587</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
@@ -3848,7 +3849,7 @@
         <v>170</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>540</v>
@@ -3869,7 +3870,7 @@
         <v>587</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>400</v>
@@ -3884,7 +3885,7 @@
         <v>346</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>347</v>
@@ -3905,7 +3906,7 @@
         <v>587</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>410</v>
@@ -3917,7 +3918,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>564</v>
@@ -3956,7 +3957,7 @@
         <v>218</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>534</v>
@@ -3977,7 +3978,7 @@
         <v>587</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="J32" s="41" t="s">
         <v>411</v>
@@ -3992,13 +3993,13 @@
         <v>143</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>473</v>
@@ -4013,7 +4014,7 @@
         <v>587</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J33" s="41" t="s">
         <v>396</v>
@@ -4028,13 +4029,13 @@
         <v>210</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>473</v>
@@ -4064,7 +4065,7 @@
         <v>349</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>350</v>
@@ -4085,7 +4086,7 @@
         <v>587</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J35" s="40" t="s">
         <v>547</v>
@@ -4103,10 +4104,10 @@
         <v>504</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E36" s="36" t="s">
         <v>473</v>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266D2342-5972-244C-B0AE-CA34A46B0B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4F4135-FBEE-5746-8DF1-790FD6600C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="1940" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2602,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:N36"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="A36" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4F4135-FBEE-5746-8DF1-790FD6600C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D89051-B6D0-9047-A055-181DC591C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="1940" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1756,9 +1756,6 @@
     <t>Feline</t>
   </si>
   <si>
-    <t>Caprine-Ovine</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -1985,6 +1982,9 @@
   </si>
   <si>
     <t>AY618998</t>
+  </si>
+  <si>
+    <t>Ovine-Caprine</t>
   </si>
 </sst>
 </file>
@@ -2603,7 +2603,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A36" sqref="A2:A36"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2630,7 +2630,7 @@
         <v>446</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>452</v>
@@ -2642,7 +2642,7 @@
         <v>570</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>453</v>
@@ -2660,7 +2660,7 @@
         <v>564</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2686,7 +2686,7 @@
         <v>565</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>460</v>
@@ -2695,16 +2695,16 @@
         <v>431</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2724,13 +2724,13 @@
         <v>572</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>493</v>
@@ -2739,16 +2739,16 @@
         <v>494</v>
       </c>
       <c r="K3" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="M3" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>584</v>
-      </c>
       <c r="N3" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2765,7 +2765,7 @@
         <v>383</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>443</v>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>519</v>
@@ -2783,24 +2783,24 @@
         <v>444</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>604</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>341</v>
@@ -2809,7 +2809,7 @@
         <v>383</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>8</v>
@@ -2818,130 +2818,130 @@
         <v>1</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I5" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>606</v>
-      </c>
       <c r="K5" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>383</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G6" s="27">
         <v>2</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I6" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>606</v>
-      </c>
       <c r="K6" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>383</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G7" s="27">
         <v>1</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>606</v>
-      </c>
       <c r="K7" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>383</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>47</v>
@@ -2950,42 +2950,42 @@
         <v>1</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>444</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>383</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>8</v>
@@ -2994,25 +2994,25 @@
         <v>3</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>444</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
         <v>566</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>470</v>
@@ -3047,21 +3047,21 @@
         <v>471</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>560</v>
@@ -3076,13 +3076,13 @@
         <v>573</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>470</v>
@@ -3091,14 +3091,14 @@
         <v>471</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3118,13 +3118,13 @@
         <v>573</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>470</v>
@@ -3133,14 +3133,14 @@
         <v>471</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3166,7 +3166,7 @@
         <v>565</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>484</v>
@@ -3175,16 +3175,16 @@
         <v>429</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3192,25 +3192,25 @@
         <v>472</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>574</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>475</v>
@@ -3219,16 +3219,16 @@
         <v>476</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -3239,22 +3239,22 @@
         <v>477</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>574</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>479</v>
@@ -3263,16 +3263,16 @@
         <v>480</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3283,7 +3283,7 @@
         <v>567</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>571</v>
@@ -3310,13 +3310,13 @@
         <v>9</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -3324,7 +3324,7 @@
         <v>206</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>529</v>
@@ -3336,31 +3336,31 @@
         <v>464</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J17" s="37" t="s">
         <v>403</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>66</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>528</v>
@@ -3380,13 +3380,13 @@
         <v>464</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I18" s="37" t="s">
         <v>515</v>
@@ -3395,16 +3395,16 @@
         <v>399</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -3415,22 +3415,22 @@
         <v>495</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I19" s="37" t="s">
         <v>362</v>
@@ -3439,16 +3439,16 @@
         <v>407</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -3456,7 +3456,7 @@
         <v>353</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>354</v>
@@ -3468,31 +3468,31 @@
         <v>464</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -3500,7 +3500,7 @@
         <v>170</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>531</v>
@@ -3512,31 +3512,31 @@
         <v>464</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>395</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3544,7 +3544,7 @@
         <v>342</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>343</v>
@@ -3556,36 +3556,36 @@
         <v>464</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J22" s="38" t="s">
         <v>405</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>555</v>
@@ -3600,13 +3600,13 @@
         <v>464</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>488</v>
@@ -3615,16 +3615,16 @@
         <v>312</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3632,7 +3632,7 @@
         <v>216</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>525</v>
@@ -3644,31 +3644,31 @@
         <v>464</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J24" s="38" t="s">
         <v>406</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3676,43 +3676,43 @@
         <v>143</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>636</v>
-      </c>
       <c r="D25" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J25" s="38" t="s">
         <v>391</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3720,25 +3720,25 @@
         <v>208</v>
       </c>
       <c r="B26" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>637</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>638</v>
-      </c>
       <c r="D26" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I26" s="38" t="s">
         <v>556</v>
@@ -3747,16 +3747,16 @@
         <v>394</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>345</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>346</v>
@@ -3776,31 +3776,31 @@
         <v>464</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J27" s="37" t="s">
         <v>538</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L27" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -3811,22 +3811,22 @@
         <v>495</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I28" s="38" t="s">
         <v>498</v>
@@ -3835,16 +3835,16 @@
         <v>396</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -3867,10 +3867,10 @@
         <v>376</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I29" s="33" t="s">
         <v>488</v>
@@ -3879,16 +3879,16 @@
         <v>312</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -3896,7 +3896,7 @@
         <v>163</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>541</v>
@@ -3908,31 +3908,31 @@
         <v>464</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J30" s="37" t="s">
         <v>393</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M30" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N30" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -3955,10 +3955,10 @@
         <v>373</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>488</v>
@@ -3967,16 +3967,16 @@
         <v>312</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -3999,10 +3999,10 @@
         <v>372</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I32" s="33" t="s">
         <v>488</v>
@@ -4011,16 +4011,16 @@
         <v>312</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N32" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -4028,7 +4028,7 @@
         <v>349</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>350</v>
@@ -4040,31 +4040,31 @@
         <v>464</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J33" s="37" t="s">
         <v>466</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -4072,7 +4072,7 @@
         <v>159</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>350</v>
@@ -4084,39 +4084,39 @@
         <v>464</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J34" s="37" t="s">
         <v>466</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M34" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C35" s="37" t="s">
         <v>350</v>
@@ -4128,36 +4128,36 @@
         <v>464</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J35" s="37" t="s">
         <v>466</v>
       </c>
       <c r="K35" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>567</v>
@@ -4175,10 +4175,10 @@
         <v>373</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I36" s="33" t="s">
         <v>488</v>
@@ -4187,16 +4187,16 @@
         <v>312</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M36" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -11529,10 +11529,10 @@
         <v>372</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>488</v>
@@ -11555,7 +11555,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>567</v>
@@ -11573,10 +11573,10 @@
         <v>373</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>488</v>
@@ -11585,7 +11585,7 @@
         <v>312</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L2" s="37">
         <v>2005</v>
@@ -11599,7 +11599,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>567</v>
@@ -11617,10 +11617,10 @@
         <v>376</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>488</v>
@@ -11629,7 +11629,7 @@
         <v>312</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L3" s="37">
         <v>2009</v>
@@ -11638,15 +11638,15 @@
         <v>10</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>350</v>
@@ -11661,13 +11661,13 @@
         <v>370</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>466</v>
@@ -11685,10 +11685,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>350</v>
@@ -11703,19 +11703,19 @@
         <v>372</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J5" s="37" t="s">
         <v>466</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="37" t="s">
@@ -11727,10 +11727,10 @@
     </row>
     <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>350</v>
@@ -11742,22 +11742,22 @@
         <v>464</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>466</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="37" t="s">
@@ -11772,7 +11772,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>541</v>
@@ -11787,19 +11787,19 @@
         <v>373</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J7" s="37" t="s">
         <v>393</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L7" s="37">
         <v>2012</v>
@@ -11816,7 +11816,7 @@
         <v>168</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>541</v>
@@ -11831,19 +11831,19 @@
         <v>376</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J8" s="37" t="s">
         <v>393</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L8" s="37">
         <v>2013</v>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D89051-B6D0-9047-A055-181DC591C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E6774-6733-4A4A-8FAA-C0C457F8A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="1940" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="652">
   <si>
     <t>Accession</t>
   </si>
@@ -2600,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B26" sqref="A1:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4196,6 +4196,50 @@
         <v>582</v>
       </c>
       <c r="N36" s="37" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="L37" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="M37" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="N37" s="37" t="s">
         <v>582</v>
       </c>
     </row>

--- a/tabular/core/lenti-reference-data.xlsx
+++ b/tabular/core/lenti-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E6774-6733-4A4A-8FAA-C0C457F8A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E50B4A-41AF-734C-A0E1-33EBCF8EB93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1940" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="2820" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="653">
   <si>
     <t>Accession</t>
   </si>
@@ -1985,6 +1985,9 @@
   </si>
   <si>
     <t>Ovine-Caprine</t>
+  </si>
+  <si>
+    <t>X05291</t>
   </si>
 </sst>
 </file>
@@ -2600,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B26" sqref="A1:N37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4240,6 +4243,50 @@
         <v>582</v>
       </c>
       <c r="N37" s="37" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="L38" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="N38" s="37" t="s">
         <v>582</v>
       </c>
     </row>
